--- a/notebooks/assets/test/RF20_1.xlsx
+++ b/notebooks/assets/test/RF20_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,20 +441,145 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0418_0425_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>grid_0_1_0903_0910_2021.gpkg</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0903_0910_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_1007_1017_2021.gpkg</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_1007_1017_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_0717_0724_2021.gpkg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0717_0724_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>grid_0_1_0324_0331_2021.gpkg</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>grid_0_1_0324_0331_2021.gpkg</t>
         </is>
@@ -467,19 +592,94 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.576</v>
+        <v>1.81</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5659999999999999</v>
+        <v>1.85</v>
       </c>
       <c r="D2" t="n">
-        <v>0.897</v>
+        <v>1.895</v>
       </c>
       <c r="E2" t="n">
-        <v>0.334</v>
+        <v>2.009</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.93</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.557</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.585</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.611</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.807</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.626</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.672</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.636</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1.848</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +689,94 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.58</v>
+        <v>4.659</v>
       </c>
       <c r="C3" t="n">
-        <v>0.657</v>
+        <v>4.65</v>
       </c>
       <c r="D3" t="n">
-        <v>1.406</v>
+        <v>5.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.39</v>
+        <v>5.862</v>
       </c>
       <c r="F3" t="n">
-        <v>0.734</v>
+        <v>5.677</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.437</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.332</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.969</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.627</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.414</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.781</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.475</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5.114</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.333</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5.117</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4.971</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4.415</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.505</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.595</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.483</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>5.643</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.681</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>6.244</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5.165</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>5.793</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>4.874</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +786,94 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.212</v>
+        <v>18.203</v>
       </c>
       <c r="C4" t="n">
-        <v>15.444</v>
+        <v>18.203</v>
       </c>
       <c r="D4" t="n">
-        <v>18.041</v>
+        <v>18.203</v>
       </c>
       <c r="E4" t="n">
-        <v>12.88</v>
+        <v>18.203</v>
       </c>
       <c r="F4" t="n">
-        <v>30.329</v>
+        <v>18.203</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.203</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="P4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="R4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="S4" t="n">
+        <v>18.059</v>
+      </c>
+      <c r="T4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="V4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="W4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="X4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12.974</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>30.217</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>30.217</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +883,94 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.248</v>
+        <v>18.206</v>
       </c>
       <c r="C5" t="n">
-        <v>15.322</v>
+        <v>18.149</v>
       </c>
       <c r="D5" t="n">
-        <v>17.948</v>
+        <v>18.019</v>
       </c>
       <c r="E5" t="n">
-        <v>12.868</v>
+        <v>17.933</v>
       </c>
       <c r="F5" t="n">
-        <v>30.295</v>
+        <v>18.04</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.408</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15.363</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.648</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.439</v>
+      </c>
+      <c r="K5" t="n">
+        <v>15.627</v>
+      </c>
+      <c r="L5" t="n">
+        <v>15.639</v>
+      </c>
+      <c r="M5" t="n">
+        <v>15.401</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>17.405</v>
+      </c>
+      <c r="P5" t="n">
+        <v>17.582</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="R5" t="n">
+        <v>17.764</v>
+      </c>
+      <c r="S5" t="n">
+        <v>17.904</v>
+      </c>
+      <c r="T5" t="n">
+        <v>12.897</v>
+      </c>
+      <c r="U5" t="n">
+        <v>12.909</v>
+      </c>
+      <c r="V5" t="n">
+        <v>13.039</v>
+      </c>
+      <c r="W5" t="n">
+        <v>12.986</v>
+      </c>
+      <c r="X5" t="n">
+        <v>13.005</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>12.882</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>30.714</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30.655</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>30.783</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>30.657</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>30.857</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>30.903</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +980,94 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.918</v>
+        <v>0.611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.612</v>
       </c>
       <c r="D6" t="n">
-        <v>0.93</v>
+        <v>0.55</v>
       </c>
       <c r="E6" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.526</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.752</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.762</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="F6" t="n">
-        <v>0.975</v>
+      <c r="O6" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.868</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.876</v>
       </c>
     </row>
   </sheetData>
